--- a/image/devicemetric.xlsx
+++ b/image/devicemetric.xlsx
@@ -719,43 +719,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.87109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/devicemetric.xlsx
+++ b/image/devicemetric.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="180">
   <si>
     <t>Path</t>
   </si>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -492,10 +492,6 @@
   </si>
   <si>
     <t>DeviceMetric.calibration.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -719,43 +715,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.59765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.30859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2877,13 +2873,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2934,30 +2930,30 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2986,7 +2982,7 @@
         <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>95</v>
@@ -3039,7 +3035,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3057,16 +3053,16 @@
         <v>38</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3088,10 +3084,10 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>95</v>
@@ -3146,7 +3142,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3169,7 +3165,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3195,10 +3191,10 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3228,11 +3224,11 @@
         <v>131</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3272,7 +3268,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3298,10 +3294,10 @@
         <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3331,11 +3327,11 @@
         <v>131</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3375,7 +3371,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3398,13 +3394,13 @@
         <v>48</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3455,7 +3451,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
